--- a/signLanguageRecognizer/modelStats.xlsx
+++ b/signLanguageRecognizer/modelStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23420" windowHeight="16420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23420" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,10 +143,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -151,6 +155,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -159,6 +165,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,11 +412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2088787480"/>
-        <c:axId val="-2088928216"/>
+        <c:axId val="-2127201864"/>
+        <c:axId val="-2127198888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088787480"/>
+        <c:axId val="-2127201864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088928216"/>
+        <c:crossAx val="-2127198888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -425,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088928216"/>
+        <c:axId val="-2127198888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +444,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088787480"/>
+        <c:crossAx val="-2127201864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -711,11 +719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2050277400"/>
-        <c:axId val="-2050916792"/>
+        <c:axId val="-2127124680"/>
+        <c:axId val="-2127121704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2050277400"/>
+        <c:axId val="-2127124680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +732,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2050916792"/>
+        <c:crossAx val="-2127121704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -732,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050916792"/>
+        <c:axId val="-2127121704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +775,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2050277400"/>
+        <c:crossAx val="-2127124680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,17 +1187,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
@@ -1243,7 +1251,7 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -1272,13 +1280,13 @@
       <c r="D7">
         <v>15</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="17">
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
@@ -1304,7 +1312,7 @@
       <c r="D12">
         <v>0.78</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="17">
       <c r="A13" t="s">
@@ -1319,7 +1327,7 @@
       <c r="D13">
         <v>3.79</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -1397,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
